--- a/example-import-data.xlsx
+++ b/example-import-data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2140" windowWidth="38540" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="6120" yWindow="2000" windowWidth="42680" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="example-csv.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -502,20 +502,40 @@
     <t>Date</t>
   </si>
   <si>
-    <t>DD/MM/YY</t>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -538,15 +558,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -876,1692 +910,1780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="20" max="20" width="29.6640625" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" customWidth="1"/>
-    <col min="22" max="22" width="20.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="29.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
+    <col min="26" max="26" width="20.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>160</v>
-      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40706</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>4060</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>403844972</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>99</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>101.15</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>11.9</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="2">
-        <v>40706</v>
+      <c r="U2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>40707</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>4005</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>402838545</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>68</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>12</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="2">
-        <v>40707</v>
+      <c r="U3" s="4">
+        <v>0.1021</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40708</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>4069</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>432431162</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>139</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>85</v>
       </c>
-      <c r="N4">
+      <c r="Q4" s="3">
         <v>241.4</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>42.6</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="2">
-        <v>40708</v>
+      <c r="U4" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40709</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>4170</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>417699448</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>60</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>51</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>9</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="2">
-        <v>40709</v>
+      <c r="U5" s="4">
+        <v>0.23566999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40710</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>4152</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>438808849</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>139</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>139</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>28</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>29.85</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" s="4">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>61</v>
       </c>
-      <c r="U6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W6" s="2">
-        <v>40710</v>
-      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
+        <v>40711</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>4152</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>433461842</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>80</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>37</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>69</v>
-      </c>
-      <c r="W7" s="2">
-        <v>40711</v>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.48602499999999998</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40712</v>
+      </c>
+      <c r="E8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>4171</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>418727030</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>400</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>320</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>37</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>60</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8" s="4">
+        <v>0.57248200000000005</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>75</v>
       </c>
-      <c r="U8" t="s">
-        <v>76</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W8" s="2">
-        <v>40712</v>
-      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>78</v>
       </c>
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40713</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>4151</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>435511522</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>119</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>125.1</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>28</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>13.9</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W9" s="2">
-        <v>40713</v>
+      <c r="U9" s="4">
+        <v>0.65893900000000005</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>86</v>
       </c>
       <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40714</v>
+      </c>
+      <c r="E10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>90</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>91</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>4011</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>447001140</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>119</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>159</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
         <v>28</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W10" s="2">
-        <v>40714</v>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0.74539599999999995</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>94</v>
       </c>
       <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40715</v>
+      </c>
+      <c r="E11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>96</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>98</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>4007</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>410362988</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>100</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>85</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
         <v>28</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>15</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" s="4">
+        <v>0.83185299999999995</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
         <v>61</v>
       </c>
-      <c r="U11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="W11" s="2">
-        <v>40715</v>
-      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>102</v>
       </c>
       <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
+        <v>40716</v>
+      </c>
+      <c r="E12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>105</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>106</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>107</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>4121</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>402707887</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>160</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>37</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0.91830999999999996</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>61</v>
       </c>
-      <c r="U12" t="s">
-        <v>108</v>
-      </c>
-      <c r="W12" s="2">
-        <v>40716</v>
-      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40717</v>
+      </c>
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>4060</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>403844972</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>109</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>169</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>177.65</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
         <v>28</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>20.9</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="U13" s="4">
+        <v>1.004767</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>61</v>
       </c>
-      <c r="U13" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W13" s="2">
-        <v>40717</v>
-      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>112</v>
       </c>
       <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2">
+        <v>40718</v>
+      </c>
+      <c r="E14" t="s">
         <v>113</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>114</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>115</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>117</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>4508</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>42566047</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>118</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>139</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>300</v>
       </c>
-      <c r="N14">
+      <c r="Q14" s="3">
         <v>350</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
         <v>28</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1.091224</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
         <v>119</v>
       </c>
-      <c r="U14" t="s">
-        <v>120</v>
-      </c>
-      <c r="W14" s="2">
-        <v>40718</v>
-      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40719</v>
+      </c>
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>27</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>4005</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>402838545</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>121</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>68</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
         <v>37</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>12</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="U15" s="4">
+        <v>1.177681</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>61</v>
       </c>
-      <c r="U15" t="s">
-        <v>122</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W15" s="2">
-        <v>40719</v>
-      </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>47</v>
       </c>
       <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40720</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>27</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>4069</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>432431162</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>124</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>139</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>25</v>
       </c>
-      <c r="N16">
+      <c r="Q16" s="3">
         <v>207.4</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
         <v>28</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>36.6</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="U16" s="4">
+        <v>1.264138</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
         <v>61</v>
       </c>
-      <c r="U16" t="s">
-        <v>125</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W16" s="2">
-        <v>40720</v>
-      </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>127</v>
       </c>
       <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2">
+        <v>40721</v>
+      </c>
+      <c r="E17" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>130</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>131</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>132</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>27</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>4006</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>412895591</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>119</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>440</v>
       </c>
-      <c r="N17">
+      <c r="Q17" s="3">
         <v>260</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
         <v>28</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1.350595</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>133</v>
       </c>
-      <c r="U17" t="s">
-        <v>134</v>
-      </c>
-      <c r="W17" s="2">
-        <v>40721</v>
-      </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2">
+        <v>40722</v>
+      </c>
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>60</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>27</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>4152</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>438808849</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>139</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>139</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
         <v>28</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>29.85</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="U18" s="4">
+        <v>1.437052</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>61</v>
       </c>
-      <c r="U18" t="s">
-        <v>135</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W18" s="2">
-        <v>40722</v>
-      </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>137</v>
       </c>
       <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40723</v>
+      </c>
+      <c r="E19" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>139</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>140</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>142</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>27</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>4069</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>402102872</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>169</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
         <v>183.2</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
         <v>28</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1.523509</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>75</v>
       </c>
-      <c r="U19" t="s">
-        <v>143</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="W19" s="2">
-        <v>40723</v>
-      </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>77</v>
       </c>
       <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40724</v>
+      </c>
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>73</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>74</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>27</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>4171</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>418727030</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>400</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>320</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>37</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>60</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="U20" s="4">
+        <v>1.609966</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>75</v>
       </c>
-      <c r="U20" t="s">
-        <v>145</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W20" s="2">
-        <v>40724</v>
-      </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40725</v>
+      </c>
+      <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>53</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>27</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>4170</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>417699448</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>139</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>60</v>
       </c>
-      <c r="N21">
+      <c r="Q21" s="3">
         <v>186.15</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
         <v>37</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>32.85</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="U21" s="4">
+        <v>1.696423</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>147</v>
       </c>
-      <c r="U21" t="s">
-        <v>148</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="W21" s="2">
-        <v>40725</v>
-      </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="2">
+        <v>40726</v>
+      </c>
+      <c r="E22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>96</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>98</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>27</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>4007</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>410362988</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>100</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>85</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
         <v>28</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>15</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="U22" s="4">
+        <v>1.78288</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
         <v>61</v>
       </c>
-      <c r="U22" t="s">
-        <v>150</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="W22" s="2">
-        <v>40726</v>
-      </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>144</v>
       </c>
       <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="2">
+        <v>40727</v>
+      </c>
+      <c r="E23" t="s">
         <v>138</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
         <v>139</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>140</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>141</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>142</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>4069</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>402102872</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>169</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>183.2</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
         <v>28</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>45.8</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="U23" s="4">
+        <v>1.869337</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
         <v>61</v>
       </c>
-      <c r="U23" t="s">
-        <v>152</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="W23" s="2">
-        <v>40727</v>
-      </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>111</v>
       </c>
       <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="2">
+        <v>40728</v>
+      </c>
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>24</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>27</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>4060</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>403844972</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>99</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>101.15</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>28</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>11.9</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="U24" s="4">
+        <v>1.955794</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
         <v>61</v>
       </c>
-      <c r="U24" t="s">
-        <v>154</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W24" s="2">
-        <v>40728</v>
-      </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>123</v>
       </c>
       <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2">
+        <v>40729</v>
+      </c>
+      <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
         <v>34</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>36</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>4005</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>402838545</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>2</v>
       </c>
-      <c r="K25" t="s">
+      <c r="N25" t="s">
         <v>156</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
         <v>68</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
         <v>37</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>12</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="U25" s="4">
+        <v>2.0422509999999998</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>61</v>
-      </c>
-      <c r="U25" t="s">
-        <v>157</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W25" s="2">
-        <v>40729</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/example-import-data.xlsx
+++ b/example-import-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2000" windowWidth="42680" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="6120" yWindow="2000" windowWidth="42680" windowHeight="24460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="example-csv.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -514,7 +514,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -558,8 +558,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,16 +573,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2681,6 +2685,5031 @@
         <v>61</v>
       </c>
     </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <v>40706</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>4060</v>
+      </c>
+      <c r="L26">
+        <v>403844972</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>99</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>101.15</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T26">
+        <v>11.9</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2">
+        <v>40707</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>4005</v>
+      </c>
+      <c r="L27">
+        <v>402838545</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>68</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27">
+        <v>12</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.1021</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2">
+        <v>40708</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>4069</v>
+      </c>
+      <c r="L28">
+        <v>432431162</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>139</v>
+      </c>
+      <c r="P28">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>241.4</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28">
+        <v>42.6</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2">
+        <v>40709</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>4170</v>
+      </c>
+      <c r="L29">
+        <v>417699448</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>60</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>51</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29">
+        <v>9</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0.23566999999999999</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2">
+        <v>40710</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>4152</v>
+      </c>
+      <c r="L30">
+        <v>438808849</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>139</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>139</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>29.85</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2">
+        <v>40711</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>4152</v>
+      </c>
+      <c r="L31">
+        <v>433461842</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>80</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0.48602499999999998</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="2">
+        <v>40712</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32">
+        <v>4171</v>
+      </c>
+      <c r="L32">
+        <v>418727030</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>400</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>320</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32">
+        <v>60</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0.57248200000000005</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="2">
+        <v>40713</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33">
+        <v>4151</v>
+      </c>
+      <c r="L33">
+        <v>435511522</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>119</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33">
+        <v>13.9</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0.65893900000000005</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="2">
+        <v>40714</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34">
+        <v>4011</v>
+      </c>
+      <c r="L34">
+        <v>447001140</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>119</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>159</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0.74539599999999995</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2">
+        <v>40715</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>4007</v>
+      </c>
+      <c r="L35">
+        <v>410362988</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>85</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>28</v>
+      </c>
+      <c r="T35">
+        <v>15</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0.83185299999999995</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2">
+        <v>40716</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36">
+        <v>4121</v>
+      </c>
+      <c r="L36">
+        <v>402707887</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>160</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0.91830999999999996</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2">
+        <v>40717</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37">
+        <v>4060</v>
+      </c>
+      <c r="L37">
+        <v>403844972</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37">
+        <v>169</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>177.65</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37">
+        <v>20.9</v>
+      </c>
+      <c r="U37" s="4">
+        <v>1.004767</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2">
+        <v>40718</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <v>4508</v>
+      </c>
+      <c r="L38">
+        <v>42566047</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>118</v>
+      </c>
+      <c r="O38">
+        <v>139</v>
+      </c>
+      <c r="P38">
+        <v>300</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>350</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <v>1.091224</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="2">
+        <v>40719</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39">
+        <v>4005</v>
+      </c>
+      <c r="L39">
+        <v>402838545</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>68</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>12</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1.177681</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="2">
+        <v>40720</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>4069</v>
+      </c>
+      <c r="L40">
+        <v>432431162</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40">
+        <v>139</v>
+      </c>
+      <c r="P40">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>207.4</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>28</v>
+      </c>
+      <c r="T40">
+        <v>36.6</v>
+      </c>
+      <c r="U40" s="4">
+        <v>1.264138</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2">
+        <v>40721</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41">
+        <v>4006</v>
+      </c>
+      <c r="L41">
+        <v>412895591</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>119</v>
+      </c>
+      <c r="P41">
+        <v>440</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>260</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>28</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1.350595</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="2">
+        <v>40722</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42">
+        <v>4152</v>
+      </c>
+      <c r="L42">
+        <v>438808849</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>139</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>139</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T42">
+        <v>29.85</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1.437052</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2">
+        <v>40723</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43">
+        <v>4069</v>
+      </c>
+      <c r="L43">
+        <v>402102872</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>169</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>183.2</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>28</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <v>1.523509</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="2">
+        <v>40724</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44">
+        <v>4171</v>
+      </c>
+      <c r="L44">
+        <v>418727030</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>400</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>320</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44">
+        <v>60</v>
+      </c>
+      <c r="U44" s="4">
+        <v>1.609966</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="2">
+        <v>40725</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45">
+        <v>4170</v>
+      </c>
+      <c r="L45">
+        <v>417699448</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>139</v>
+      </c>
+      <c r="P45">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>186.15</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45">
+        <v>32.85</v>
+      </c>
+      <c r="U45" s="4">
+        <v>1.696423</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2">
+        <v>40726</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46">
+        <v>4007</v>
+      </c>
+      <c r="L46">
+        <v>410362988</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>85</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T46">
+        <v>15</v>
+      </c>
+      <c r="U46" s="4">
+        <v>1.78288</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="2">
+        <v>40727</v>
+      </c>
+      <c r="E47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47">
+        <v>4069</v>
+      </c>
+      <c r="L47">
+        <v>402102872</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>169</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>183.2</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47">
+        <v>45.8</v>
+      </c>
+      <c r="U47" s="4">
+        <v>1.869337</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="2">
+        <v>40728</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48">
+        <v>4060</v>
+      </c>
+      <c r="L48">
+        <v>403844972</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>99</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>101.15</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>28</v>
+      </c>
+      <c r="T48">
+        <v>11.9</v>
+      </c>
+      <c r="U48" s="4">
+        <v>1.955794</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="2">
+        <v>40729</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49">
+        <v>4005</v>
+      </c>
+      <c r="L49">
+        <v>402838545</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>156</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>68</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49">
+        <v>12</v>
+      </c>
+      <c r="U49" s="4">
+        <v>2.0422509999999998</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="2">
+        <v>40706</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50">
+        <v>4060</v>
+      </c>
+      <c r="L50">
+        <v>403844972</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>99</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>101.15</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>28</v>
+      </c>
+      <c r="T50">
+        <v>11.9</v>
+      </c>
+      <c r="U50" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2">
+        <v>40707</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51">
+        <v>4005</v>
+      </c>
+      <c r="L51">
+        <v>402838545</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>68</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51">
+        <v>12</v>
+      </c>
+      <c r="U51" s="4">
+        <v>0.1021</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="2">
+        <v>40708</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52">
+        <v>4069</v>
+      </c>
+      <c r="L52">
+        <v>432431162</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>139</v>
+      </c>
+      <c r="P52">
+        <v>85</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>241.4</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>28</v>
+      </c>
+      <c r="T52">
+        <v>42.6</v>
+      </c>
+      <c r="U52" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2">
+        <v>40709</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53">
+        <v>4170</v>
+      </c>
+      <c r="L53">
+        <v>417699448</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>60</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>51</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53">
+        <v>9</v>
+      </c>
+      <c r="U53" s="4">
+        <v>0.23566999999999999</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2">
+        <v>40710</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54">
+        <v>4152</v>
+      </c>
+      <c r="L54">
+        <v>438808849</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>139</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>139</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>28</v>
+      </c>
+      <c r="T54">
+        <v>29.85</v>
+      </c>
+      <c r="U54" s="4">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2">
+        <v>40711</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55">
+        <v>4152</v>
+      </c>
+      <c r="L55">
+        <v>433461842</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>80</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>37</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0.48602499999999998</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2">
+        <v>40712</v>
+      </c>
+      <c r="E56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56">
+        <v>4171</v>
+      </c>
+      <c r="L56">
+        <v>418727030</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>400</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>320</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56" t="s">
+        <v>37</v>
+      </c>
+      <c r="T56">
+        <v>60</v>
+      </c>
+      <c r="U56" s="4">
+        <v>0.57248200000000005</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="2">
+        <v>40713</v>
+      </c>
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57">
+        <v>4151</v>
+      </c>
+      <c r="L57">
+        <v>435511522</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>119</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>28</v>
+      </c>
+      <c r="T57">
+        <v>13.9</v>
+      </c>
+      <c r="U57" s="4">
+        <v>0.65893900000000005</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="2">
+        <v>40714</v>
+      </c>
+      <c r="E58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58">
+        <v>4011</v>
+      </c>
+      <c r="L58">
+        <v>447001140</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>119</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>159</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>28</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" s="4">
+        <v>0.74539599999999995</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="2">
+        <v>40715</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>4007</v>
+      </c>
+      <c r="L59">
+        <v>410362988</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>100</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>85</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>28</v>
+      </c>
+      <c r="T59">
+        <v>15</v>
+      </c>
+      <c r="U59" s="4">
+        <v>0.83185299999999995</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2">
+        <v>40716</v>
+      </c>
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" t="s">
+        <v>107</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60">
+        <v>4121</v>
+      </c>
+      <c r="L60">
+        <v>402707887</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>160</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>37</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0.91830999999999996</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="2">
+        <v>40717</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61">
+        <v>4060</v>
+      </c>
+      <c r="L61">
+        <v>403844972</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>109</v>
+      </c>
+      <c r="O61">
+        <v>169</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>177.65</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>28</v>
+      </c>
+      <c r="T61">
+        <v>20.9</v>
+      </c>
+      <c r="U61" s="4">
+        <v>1.004767</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="2">
+        <v>40718</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" t="s">
+        <v>117</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62">
+        <v>4508</v>
+      </c>
+      <c r="L62">
+        <v>42566047</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>118</v>
+      </c>
+      <c r="O62">
+        <v>139</v>
+      </c>
+      <c r="P62">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>350</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>28</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62" s="4">
+        <v>1.091224</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="2">
+        <v>40719</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63">
+        <v>4005</v>
+      </c>
+      <c r="L63">
+        <v>402838545</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>121</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>68</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>37</v>
+      </c>
+      <c r="T63">
+        <v>12</v>
+      </c>
+      <c r="U63" s="4">
+        <v>1.177681</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="2">
+        <v>40720</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64">
+        <v>4069</v>
+      </c>
+      <c r="L64">
+        <v>432431162</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>124</v>
+      </c>
+      <c r="O64">
+        <v>139</v>
+      </c>
+      <c r="P64">
+        <v>25</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>207.4</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>28</v>
+      </c>
+      <c r="T64">
+        <v>36.6</v>
+      </c>
+      <c r="U64" s="4">
+        <v>1.264138</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="2">
+        <v>40721</v>
+      </c>
+      <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65">
+        <v>4006</v>
+      </c>
+      <c r="L65">
+        <v>412895591</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>119</v>
+      </c>
+      <c r="P65">
+        <v>440</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>260</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>28</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65" s="4">
+        <v>1.350595</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="2">
+        <v>40722</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66">
+        <v>4152</v>
+      </c>
+      <c r="L66">
+        <v>438808849</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>139</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>139</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>28</v>
+      </c>
+      <c r="T66">
+        <v>29.85</v>
+      </c>
+      <c r="U66" s="4">
+        <v>1.437052</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="2">
+        <v>40723</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" t="s">
+        <v>142</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67">
+        <v>4069</v>
+      </c>
+      <c r="L67">
+        <v>402102872</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>169</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>183.2</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>28</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67" s="4">
+        <v>1.523509</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="2">
+        <v>40724</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68">
+        <v>4171</v>
+      </c>
+      <c r="L68">
+        <v>418727030</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>400</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>320</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68">
+        <v>60</v>
+      </c>
+      <c r="U68" s="4">
+        <v>1.609966</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="2">
+        <v>40725</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J69" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69">
+        <v>4170</v>
+      </c>
+      <c r="L69">
+        <v>417699448</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>139</v>
+      </c>
+      <c r="P69">
+        <v>60</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>186.15</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>37</v>
+      </c>
+      <c r="T69">
+        <v>32.85</v>
+      </c>
+      <c r="U69" s="4">
+        <v>1.696423</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="2">
+        <v>40726</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70">
+        <v>4007</v>
+      </c>
+      <c r="L70">
+        <v>410362988</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>100</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>85</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>28</v>
+      </c>
+      <c r="T70">
+        <v>15</v>
+      </c>
+      <c r="U70" s="4">
+        <v>1.78288</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="2">
+        <v>40727</v>
+      </c>
+      <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71" t="s">
+        <v>141</v>
+      </c>
+      <c r="I71" t="s">
+        <v>142</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71">
+        <v>4069</v>
+      </c>
+      <c r="L71">
+        <v>402102872</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>169</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>183.2</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
+        <v>28</v>
+      </c>
+      <c r="T71">
+        <v>45.8</v>
+      </c>
+      <c r="U71" s="4">
+        <v>1.869337</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="2">
+        <v>40728</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72">
+        <v>4060</v>
+      </c>
+      <c r="L72">
+        <v>403844972</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>99</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>101.15</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>28</v>
+      </c>
+      <c r="T72">
+        <v>11.9</v>
+      </c>
+      <c r="U72" s="4">
+        <v>1.955794</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="2">
+        <v>40729</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73">
+        <v>4005</v>
+      </c>
+      <c r="L73">
+        <v>402838545</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>156</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>68</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>37</v>
+      </c>
+      <c r="T73">
+        <v>12</v>
+      </c>
+      <c r="U73" s="4">
+        <v>2.0422509999999998</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="2">
+        <v>40706</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74">
+        <v>4060</v>
+      </c>
+      <c r="L74">
+        <v>403844972</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>99</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>101.15</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>28</v>
+      </c>
+      <c r="T74">
+        <v>11.9</v>
+      </c>
+      <c r="U74" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="2">
+        <v>40707</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75">
+        <v>4005</v>
+      </c>
+      <c r="L75">
+        <v>402838545</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>68</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75">
+        <v>12</v>
+      </c>
+      <c r="U75" s="4">
+        <v>0.1021</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="2">
+        <v>40708</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76">
+        <v>4069</v>
+      </c>
+      <c r="L76">
+        <v>432431162</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>139</v>
+      </c>
+      <c r="P76">
+        <v>85</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>241.4</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76" t="s">
+        <v>28</v>
+      </c>
+      <c r="T76">
+        <v>42.6</v>
+      </c>
+      <c r="U76" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="2">
+        <v>40709</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s">
+        <v>51</v>
+      </c>
+      <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s">
+        <v>53</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77">
+        <v>4170</v>
+      </c>
+      <c r="L77">
+        <v>417699448</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>60</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>51</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77">
+        <v>9</v>
+      </c>
+      <c r="U77" s="4">
+        <v>0.23566999999999999</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="2">
+        <v>40710</v>
+      </c>
+      <c r="E78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" t="s">
+        <v>58</v>
+      </c>
+      <c r="H78" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78">
+        <v>4152</v>
+      </c>
+      <c r="L78">
+        <v>438808849</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>139</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>139</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>28</v>
+      </c>
+      <c r="T78">
+        <v>29.85</v>
+      </c>
+      <c r="U78" s="4">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2">
+        <v>40711</v>
+      </c>
+      <c r="E79" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" t="s">
+        <v>68</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79">
+        <v>4152</v>
+      </c>
+      <c r="L79">
+        <v>433461842</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>80</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79" s="4">
+        <v>0.48602499999999998</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2">
+        <v>40712</v>
+      </c>
+      <c r="E80" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80">
+        <v>4171</v>
+      </c>
+      <c r="L80">
+        <v>418727030</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>400</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>320</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80">
+        <v>60</v>
+      </c>
+      <c r="U80" s="4">
+        <v>0.57248200000000005</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="2">
+        <v>40713</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81">
+        <v>4151</v>
+      </c>
+      <c r="L81">
+        <v>435511522</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>119</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>28</v>
+      </c>
+      <c r="T81">
+        <v>13.9</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0.65893900000000005</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="2">
+        <v>40714</v>
+      </c>
+      <c r="E82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82">
+        <v>4011</v>
+      </c>
+      <c r="L82">
+        <v>447001140</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>119</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>159</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>28</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82" s="4">
+        <v>0.74539599999999995</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="2">
+        <v>40715</v>
+      </c>
+      <c r="E83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" t="s">
+        <v>98</v>
+      </c>
+      <c r="I83" t="s">
+        <v>99</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83">
+        <v>4007</v>
+      </c>
+      <c r="L83">
+        <v>410362988</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>100</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>85</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83" t="s">
+        <v>28</v>
+      </c>
+      <c r="T83">
+        <v>15</v>
+      </c>
+      <c r="U83" s="4">
+        <v>0.83185299999999995</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2">
+        <v>40716</v>
+      </c>
+      <c r="E84" t="s">
+        <v>103</v>
+      </c>
+      <c r="F84" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+      <c r="J84" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84">
+        <v>4121</v>
+      </c>
+      <c r="L84">
+        <v>402707887</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>160</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84" s="4">
+        <v>0.91830999999999996</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="2">
+        <v>40717</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85">
+        <v>4060</v>
+      </c>
+      <c r="L85">
+        <v>403844972</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>109</v>
+      </c>
+      <c r="O85">
+        <v>169</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>177.65</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85" t="s">
+        <v>28</v>
+      </c>
+      <c r="T85">
+        <v>20.9</v>
+      </c>
+      <c r="U85" s="4">
+        <v>1.004767</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2">
+        <v>40718</v>
+      </c>
+      <c r="E86" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" t="s">
+        <v>116</v>
+      </c>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86">
+        <v>4508</v>
+      </c>
+      <c r="L86">
+        <v>42566047</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>118</v>
+      </c>
+      <c r="O86">
+        <v>139</v>
+      </c>
+      <c r="P86">
+        <v>300</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>350</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86" t="s">
+        <v>28</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86" s="4">
+        <v>1.091224</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="2">
+        <v>40719</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87">
+        <v>4005</v>
+      </c>
+      <c r="L87">
+        <v>402838545</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>121</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>68</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87" t="s">
+        <v>37</v>
+      </c>
+      <c r="T87">
+        <v>12</v>
+      </c>
+      <c r="U87" s="4">
+        <v>1.177681</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="2">
+        <v>40720</v>
+      </c>
+      <c r="E88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88">
+        <v>4069</v>
+      </c>
+      <c r="L88">
+        <v>432431162</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>124</v>
+      </c>
+      <c r="O88">
+        <v>139</v>
+      </c>
+      <c r="P88">
+        <v>25</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>207.4</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88" t="s">
+        <v>28</v>
+      </c>
+      <c r="T88">
+        <v>36.6</v>
+      </c>
+      <c r="U88" s="4">
+        <v>1.264138</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2">
+        <v>40721</v>
+      </c>
+      <c r="E89" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G89" t="s">
+        <v>130</v>
+      </c>
+      <c r="H89" t="s">
+        <v>131</v>
+      </c>
+      <c r="I89" t="s">
+        <v>132</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89">
+        <v>4006</v>
+      </c>
+      <c r="L89">
+        <v>412895591</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>119</v>
+      </c>
+      <c r="P89">
+        <v>440</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>260</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89" t="s">
+        <v>28</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89" s="4">
+        <v>1.350595</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="2">
+        <v>40722</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" t="s">
+        <v>60</v>
+      </c>
+      <c r="J90" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90">
+        <v>4152</v>
+      </c>
+      <c r="L90">
+        <v>438808849</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>139</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>139</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90" t="s">
+        <v>28</v>
+      </c>
+      <c r="T90">
+        <v>29.85</v>
+      </c>
+      <c r="U90" s="4">
+        <v>1.437052</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="2">
+        <v>40723</v>
+      </c>
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" t="s">
+        <v>140</v>
+      </c>
+      <c r="H91" t="s">
+        <v>141</v>
+      </c>
+      <c r="I91" t="s">
+        <v>142</v>
+      </c>
+      <c r="J91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91">
+        <v>4069</v>
+      </c>
+      <c r="L91">
+        <v>402102872</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>169</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>183.2</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91" t="s">
+        <v>28</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91" s="4">
+        <v>1.523509</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="2">
+        <v>40724</v>
+      </c>
+      <c r="E92" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>73</v>
+      </c>
+      <c r="I92" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92">
+        <v>4171</v>
+      </c>
+      <c r="L92">
+        <v>418727030</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>400</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>320</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92">
+        <v>60</v>
+      </c>
+      <c r="U92" s="4">
+        <v>1.609966</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="2">
+        <v>40725</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" t="s">
+        <v>52</v>
+      </c>
+      <c r="I93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93">
+        <v>4170</v>
+      </c>
+      <c r="L93">
+        <v>417699448</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>139</v>
+      </c>
+      <c r="P93">
+        <v>60</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>186.15</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93" t="s">
+        <v>37</v>
+      </c>
+      <c r="T93">
+        <v>32.85</v>
+      </c>
+      <c r="U93" s="4">
+        <v>1.696423</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="2">
+        <v>40726</v>
+      </c>
+      <c r="E94" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94" t="s">
+        <v>97</v>
+      </c>
+      <c r="H94" t="s">
+        <v>98</v>
+      </c>
+      <c r="I94" t="s">
+        <v>99</v>
+      </c>
+      <c r="J94" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94">
+        <v>4007</v>
+      </c>
+      <c r="L94">
+        <v>410362988</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>100</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>85</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94" t="s">
+        <v>28</v>
+      </c>
+      <c r="T94">
+        <v>15</v>
+      </c>
+      <c r="U94" s="4">
+        <v>1.78288</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="2">
+        <v>40727</v>
+      </c>
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" t="s">
+        <v>139</v>
+      </c>
+      <c r="G95" t="s">
+        <v>140</v>
+      </c>
+      <c r="H95" t="s">
+        <v>141</v>
+      </c>
+      <c r="I95" t="s">
+        <v>142</v>
+      </c>
+      <c r="J95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95">
+        <v>4069</v>
+      </c>
+      <c r="L95">
+        <v>402102872</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>169</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>183.2</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95" t="s">
+        <v>28</v>
+      </c>
+      <c r="T95">
+        <v>45.8</v>
+      </c>
+      <c r="U95" s="4">
+        <v>1.869337</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" s="2">
+        <v>40728</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96">
+        <v>4060</v>
+      </c>
+      <c r="L96">
+        <v>403844972</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>99</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>101.15</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96" t="s">
+        <v>28</v>
+      </c>
+      <c r="T96">
+        <v>11.9</v>
+      </c>
+      <c r="U96" s="4">
+        <v>1.955794</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="2">
+        <v>40729</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" t="s">
+        <v>36</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97">
+        <v>4005</v>
+      </c>
+      <c r="L97">
+        <v>402838545</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>156</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>68</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T97">
+        <v>12</v>
+      </c>
+      <c r="U97" s="4">
+        <v>2.0422509999999998</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
